--- a/data.xlsx
+++ b/data.xlsx
@@ -1219,11 +1219,11 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N34" sqref="N34"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1744,7 +1744,7 @@
         <v>112</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D31" si="1">B17-C17</f>
+        <f t="shared" ref="D17:D34" si="1">B17-C17</f>
         <v>176</v>
       </c>
       <c r="E17">
@@ -2206,7 +2206,7 @@
         <v>2352</v>
       </c>
       <c r="D31">
-        <f>B31-C31</f>
+        <f t="shared" si="1"/>
         <v>243</v>
       </c>
       <c r="E31">
@@ -2239,7 +2239,7 @@
         <v>1369</v>
       </c>
       <c r="D32">
-        <f>B32-C32</f>
+        <f t="shared" si="1"/>
         <v>283</v>
       </c>
       <c r="E32">
@@ -2272,7 +2272,7 @@
         <v>799</v>
       </c>
       <c r="D33">
-        <f>B33-C33</f>
+        <f t="shared" si="1"/>
         <v>196</v>
       </c>
       <c r="E33">
@@ -2305,7 +2305,7 @@
         <v>188</v>
       </c>
       <c r="D34">
-        <f>B34-C34</f>
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="E34">
@@ -2331,145 +2331,525 @@
       <c r="A35" s="2">
         <v>45992</v>
       </c>
+      <c r="B35">
+        <v>1740</v>
+      </c>
+      <c r="C35">
+        <v>1549</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:D63" si="2">B35-C35</f>
+        <v>191</v>
+      </c>
+      <c r="E35">
+        <v>55</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>227</v>
+      </c>
+      <c r="I35">
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <v>128</v>
+      </c>
     </row>
     <row r="36" customHeight="1" spans="1:10">
       <c r="A36" s="2">
         <v>45993</v>
       </c>
+      <c r="B36">
+        <v>1866</v>
+      </c>
+      <c r="C36">
+        <v>1609</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>257</v>
+      </c>
+      <c r="E36">
+        <v>55</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>287</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>36</v>
+      </c>
     </row>
     <row r="37" customHeight="1" spans="1:10">
       <c r="A37" s="2">
         <v>45994</v>
       </c>
+      <c r="B37">
+        <v>1392</v>
+      </c>
+      <c r="C37">
+        <v>1609</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>-217</v>
+      </c>
+      <c r="E37">
+        <v>46</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>206</v>
+      </c>
+      <c r="I37">
+        <v>13</v>
+      </c>
+      <c r="J37">
+        <v>32</v>
+      </c>
     </row>
     <row r="38" customHeight="1" spans="1:10">
       <c r="A38" s="2">
         <v>45995</v>
       </c>
+      <c r="B38">
+        <v>1364</v>
+      </c>
+      <c r="C38">
+        <v>1084</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="E38">
+        <v>38</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>209</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>61</v>
+      </c>
     </row>
     <row r="39" customHeight="1" spans="1:10">
       <c r="A39" s="2">
         <v>45996</v>
       </c>
+      <c r="B39">
+        <v>2956</v>
+      </c>
+      <c r="C39">
+        <v>2689</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>267</v>
+      </c>
+      <c r="E39">
+        <v>32</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>278</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customHeight="1" spans="1:10">
       <c r="A40" s="2">
         <v>45997</v>
       </c>
+      <c r="B40">
+        <v>1590</v>
+      </c>
+      <c r="C40">
+        <v>1409</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="E40">
+        <v>22</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customHeight="1" spans="1:10">
       <c r="A41" s="2">
         <v>45998</v>
       </c>
+      <c r="B41">
+        <v>2060</v>
+      </c>
+      <c r="C41">
+        <v>1939</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="E41">
+        <v>32</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>245</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>96</v>
+      </c>
     </row>
     <row r="42" customHeight="1" spans="1:10">
       <c r="A42" s="2">
         <v>45999</v>
       </c>
+      <c r="B42">
+        <v>3378</v>
+      </c>
+      <c r="C42">
+        <v>3186</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="E42">
+        <v>67</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+      <c r="H42">
+        <v>314</v>
+      </c>
+      <c r="I42">
+        <v>12</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customHeight="1" spans="1:10">
       <c r="A43" s="2">
         <v>46000</v>
       </c>
+      <c r="B43">
+        <v>2722</v>
+      </c>
+      <c r="C43">
+        <v>2438</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>284</v>
+      </c>
+      <c r="E43">
+        <v>59</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>290</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>83</v>
+      </c>
     </row>
     <row r="44" customHeight="1" spans="1:10">
       <c r="A44" s="2">
         <v>46001</v>
       </c>
+      <c r="B44">
+        <v>1974</v>
+      </c>
+      <c r="C44">
+        <v>1703</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>271</v>
+      </c>
+      <c r="E44">
+        <v>37</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>222</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <v>115</v>
+      </c>
     </row>
     <row r="45" customHeight="1" spans="1:10">
       <c r="A45" s="2">
         <v>46002</v>
       </c>
+      <c r="B45">
+        <v>2660</v>
+      </c>
+      <c r="C45">
+        <v>2176</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>484</v>
+      </c>
+      <c r="E45">
+        <v>61</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <v>278</v>
+      </c>
+      <c r="I45">
+        <v>16</v>
+      </c>
+      <c r="J45">
+        <v>36</v>
+      </c>
     </row>
     <row r="46" customHeight="1" spans="1:10">
       <c r="A46" s="2">
         <v>46003</v>
       </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customHeight="1" spans="1:10">
       <c r="A47" s="2">
         <v>46004</v>
       </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customHeight="1" spans="1:10">
       <c r="A48" s="2">
         <v>46005</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:1">
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:4">
       <c r="A49" s="2">
         <v>46006</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:1">
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:4">
       <c r="A50" s="2">
         <v>46007</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:1">
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:4">
       <c r="A51" s="2">
         <v>46008</v>
       </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:1">
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:4">
       <c r="A52" s="2">
         <v>46009</v>
       </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:1">
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:4">
       <c r="A53" s="2">
         <v>46010</v>
       </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:1">
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:4">
       <c r="A54" s="2">
         <v>46011</v>
       </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:1">
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:4">
       <c r="A55" s="2">
         <v>46012</v>
       </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:1">
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:4">
       <c r="A56" s="2">
         <v>46013</v>
       </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:1">
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:4">
       <c r="A57" s="2">
         <v>46014</v>
       </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:1">
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:4">
       <c r="A58" s="2">
         <v>46015</v>
       </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:1">
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:4">
       <c r="A59" s="2">
         <v>46016</v>
       </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:1">
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:4">
       <c r="A60" s="2">
         <v>46017</v>
       </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:1">
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:4">
       <c r="A61" s="2">
         <v>46018</v>
       </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:1">
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:4">
       <c r="A62" s="2">
         <v>46019</v>
       </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:1">
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:4">
       <c r="A63" s="2">
         <v>46020</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1219,11 +1219,11 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -2516,7 +2516,7 @@
         <v>3</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I41">
         <v>5</v>
@@ -2694,57 +2694,201 @@
       <c r="A46" s="2">
         <v>46003</v>
       </c>
+      <c r="B46">
+        <v>2926</v>
+      </c>
+      <c r="C46">
+        <v>2757</v>
+      </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="E46">
+        <v>45</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <v>241</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>42</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:10">
       <c r="A47" s="2">
         <v>46004</v>
       </c>
+      <c r="B47">
+        <v>2267</v>
+      </c>
+      <c r="C47">
+        <v>2089</v>
+      </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>178</v>
+      </c>
+      <c r="E47">
+        <v>40</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>209</v>
+      </c>
+      <c r="I47">
+        <v>14</v>
+      </c>
+      <c r="J47">
+        <v>132</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:10">
       <c r="A48" s="2">
         <v>46005</v>
       </c>
+      <c r="B48">
+        <v>833</v>
+      </c>
+      <c r="C48">
+        <v>727</v>
+      </c>
       <c r="D48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="E48">
+        <v>14</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>107</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:10">
       <c r="A49" s="2">
         <v>46006</v>
       </c>
+      <c r="B49">
+        <v>3064</v>
+      </c>
+      <c r="C49">
+        <v>2630</v>
+      </c>
       <c r="D49">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:4">
+        <v>434</v>
+      </c>
+      <c r="E49">
+        <v>104</v>
+      </c>
+      <c r="F49">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>11</v>
+      </c>
+      <c r="H49">
+        <v>240</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:10">
       <c r="A50" s="2">
         <v>46007</v>
       </c>
+      <c r="B50">
+        <v>3137</v>
+      </c>
+      <c r="C50">
+        <v>2781</v>
+      </c>
       <c r="D50">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:4">
+        <v>356</v>
+      </c>
+      <c r="E50">
+        <v>84</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>7</v>
+      </c>
+      <c r="H50">
+        <v>243</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:10">
       <c r="A51" s="2">
         <v>46008</v>
       </c>
+      <c r="B51">
+        <v>1446</v>
+      </c>
+      <c r="C51">
+        <v>946</v>
+      </c>
       <c r="D51">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:4">
+        <v>500</v>
+      </c>
+      <c r="E51">
+        <v>42</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>177</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:10">
       <c r="A52" s="2">
         <v>46009</v>
       </c>
@@ -2753,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:4">
+    <row r="53" customHeight="1" spans="1:10">
       <c r="A53" s="2">
         <v>46010</v>
       </c>
@@ -2762,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:4">
+    <row r="54" customHeight="1" spans="1:10">
       <c r="A54" s="2">
         <v>46011</v>
       </c>
@@ -2771,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:4">
+    <row r="55" customHeight="1" spans="1:10">
       <c r="A55" s="2">
         <v>46012</v>
       </c>
@@ -2780,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:4">
+    <row r="56" customHeight="1" spans="1:10">
       <c r="A56" s="2">
         <v>46013</v>
       </c>
@@ -2789,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:4">
+    <row r="57" customHeight="1" spans="1:10">
       <c r="A57" s="2">
         <v>46014</v>
       </c>
@@ -2798,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:4">
+    <row r="58" customHeight="1" spans="1:10">
       <c r="A58" s="2">
         <v>46015</v>
       </c>
@@ -2807,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:4">
+    <row r="59" customHeight="1" spans="1:10">
       <c r="A59" s="2">
         <v>46016</v>
       </c>
@@ -2816,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:4">
+    <row r="60" customHeight="1" spans="1:10">
       <c r="A60" s="2">
         <v>46017</v>
       </c>
@@ -2825,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:4">
+    <row r="61" customHeight="1" spans="1:10">
       <c r="A61" s="2">
         <v>46018</v>
       </c>
@@ -2834,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:4">
+    <row r="62" customHeight="1" spans="1:10">
       <c r="A62" s="2">
         <v>46019</v>
       </c>
@@ -2843,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:4">
+    <row r="63" customHeight="1" spans="1:10">
       <c r="A63" s="2">
         <v>46020</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1219,11 +1219,11 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I56" sqref="I56"/>
+      <selection pane="bottomRight" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -2892,17 +2892,65 @@
       <c r="A52" s="2">
         <v>46009</v>
       </c>
+      <c r="B52">
+        <v>2331</v>
+      </c>
+      <c r="C52">
+        <v>1982</v>
+      </c>
       <c r="D52">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>B52-C52</f>
+        <v>349</v>
+      </c>
+      <c r="E52">
+        <v>65</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <v>7</v>
+      </c>
+      <c r="H52">
+        <v>224</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>8585</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:10">
       <c r="A53" s="2">
         <v>46010</v>
       </c>
+      <c r="B53">
+        <v>2256</v>
+      </c>
+      <c r="C53">
+        <v>1910</v>
+      </c>
       <c r="D53">
-        <f t="shared" si="2"/>
+        <f>B53-C53</f>
+        <v>346</v>
+      </c>
+      <c r="E53">
+        <v>64</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>235</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
         <v>0</v>
       </c>
     </row>
@@ -2911,7 +2959,7 @@
         <v>46011</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
+        <f>B54-C54</f>
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -67,11 +67,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -531,19 +531,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1219,11 +1219,11 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomRight" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -2899,7 +2899,7 @@
         <v>1982</v>
       </c>
       <c r="D52">
-        <f>B52-C52</f>
+        <f t="shared" si="2"/>
         <v>349</v>
       </c>
       <c r="E52">
@@ -2932,7 +2932,7 @@
         <v>1910</v>
       </c>
       <c r="D53">
-        <f>B53-C53</f>
+        <f t="shared" si="2"/>
         <v>346</v>
       </c>
       <c r="E53">
@@ -2958,8 +2958,32 @@
       <c r="A54" s="2">
         <v>46011</v>
       </c>
+      <c r="B54">
+        <v>1213</v>
+      </c>
+      <c r="C54">
+        <v>843</v>
+      </c>
       <c r="D54">
-        <f>B54-C54</f>
+        <f t="shared" si="2"/>
+        <v>370</v>
+      </c>
+      <c r="E54">
+        <v>18</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>138</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
         <v>0</v>
       </c>
     </row>
@@ -2967,8 +2991,32 @@
       <c r="A55" s="2">
         <v>46012</v>
       </c>
+      <c r="B55">
+        <v>1294</v>
+      </c>
+      <c r="C55">
+        <v>405</v>
+      </c>
       <c r="D55">
         <f t="shared" si="2"/>
+        <v>889</v>
+      </c>
+      <c r="E55">
+        <v>14</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>108</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
         <v>0</v>
       </c>
     </row>
@@ -2976,26 +3024,98 @@
       <c r="A56" s="2">
         <v>46013</v>
       </c>
+      <c r="B56">
+        <v>2735</v>
+      </c>
+      <c r="C56">
+        <v>2204</v>
+      </c>
       <c r="D56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>531</v>
+      </c>
+      <c r="E56">
+        <v>55</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>254</v>
+      </c>
+      <c r="I56">
+        <v>6</v>
+      </c>
+      <c r="J56">
+        <v>36</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:10">
       <c r="A57" s="2">
         <v>46014</v>
       </c>
+      <c r="B57">
+        <v>2573</v>
+      </c>
+      <c r="C57">
+        <v>1882</v>
+      </c>
       <c r="D57">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>691</v>
+      </c>
+      <c r="E57">
+        <v>60</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>253</v>
+      </c>
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>178</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:10">
       <c r="A58" s="2">
         <v>46015</v>
       </c>
+      <c r="B58">
+        <v>3147</v>
+      </c>
+      <c r="C58">
+        <v>2706</v>
+      </c>
       <c r="D58">
         <f t="shared" si="2"/>
+        <v>441</v>
+      </c>
+      <c r="E58">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>314</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
         <v>0</v>
       </c>
     </row>
@@ -3003,8 +3123,32 @@
       <c r="A59" s="2">
         <v>46016</v>
       </c>
+      <c r="B59">
+        <v>2227</v>
+      </c>
+      <c r="C59">
+        <v>1735</v>
+      </c>
       <c r="D59">
         <f t="shared" si="2"/>
+        <v>492</v>
+      </c>
+      <c r="E59">
+        <v>46</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>251</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
         <v>0</v>
       </c>
     </row>
@@ -3012,17 +3156,65 @@
       <c r="A60" s="2">
         <v>46017</v>
       </c>
+      <c r="B60">
+        <v>2596</v>
+      </c>
+      <c r="C60">
+        <v>2247</v>
+      </c>
       <c r="D60">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E60">
+        <v>62</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+      <c r="H60">
+        <v>259</v>
+      </c>
+      <c r="I60">
+        <v>26</v>
+      </c>
+      <c r="J60">
+        <v>18</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:10">
       <c r="A61" s="2">
         <v>46018</v>
       </c>
+      <c r="B61">
+        <v>2720</v>
+      </c>
+      <c r="C61">
+        <v>2370</v>
+      </c>
       <c r="D61">
         <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="E61">
+        <v>47</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61">
+        <v>7</v>
+      </c>
+      <c r="H61">
+        <v>142</v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+      <c r="J61">
         <v>0</v>
       </c>
     </row>
@@ -3030,8 +3222,32 @@
       <c r="A62" s="2">
         <v>46019</v>
       </c>
+      <c r="B62">
+        <v>591</v>
+      </c>
+      <c r="C62">
+        <v>288</v>
+      </c>
       <c r="D62">
         <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="E62">
+        <v>21</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>107</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -66,12 +66,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="181" formatCode="[$-404]e&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -676,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,6 +685,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,14 +1220,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G54" sqref="G54"/>
+      <selection pane="bottomRight" activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -3255,9 +3259,1986 @@
       <c r="A63" s="2">
         <v>46020</v>
       </c>
+      <c r="B63">
+        <v>3228</v>
+      </c>
+      <c r="C63">
+        <v>2813</v>
+      </c>
       <c r="D63">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>415</v>
+      </c>
+      <c r="E63">
+        <v>64</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>205</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:10">
+      <c r="A64" s="2">
+        <v>46021</v>
+      </c>
+      <c r="B64">
+        <v>4256</v>
+      </c>
+      <c r="C64">
+        <v>3775</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ref="D64:D95" si="3">B64-C64</f>
+        <v>481</v>
+      </c>
+      <c r="E64">
+        <v>90</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>245</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:10">
+      <c r="A65" s="2">
+        <v>46022</v>
+      </c>
+      <c r="B65">
+        <v>2984</v>
+      </c>
+      <c r="C65">
+        <v>2545</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="3"/>
+        <v>439</v>
+      </c>
+      <c r="E65">
+        <v>63</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65">
+        <v>7</v>
+      </c>
+      <c r="H65">
+        <v>228</v>
+      </c>
+      <c r="I65">
+        <v>9</v>
+      </c>
+      <c r="J65">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:10">
+      <c r="A66" s="3">
+        <v>46023</v>
+      </c>
+      <c r="B66">
+        <v>264</v>
+      </c>
+      <c r="C66">
+        <v>28</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="E66">
+        <v>9</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>34</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:10">
+      <c r="A67" s="3">
+        <v>46024</v>
+      </c>
+      <c r="B67">
+        <v>3738</v>
+      </c>
+      <c r="C67">
+        <v>3396</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="3"/>
+        <v>342</v>
+      </c>
+      <c r="E67">
+        <v>56</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>173</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:10">
+      <c r="A68" s="3">
+        <v>46025</v>
+      </c>
+      <c r="B68">
+        <v>2516</v>
+      </c>
+      <c r="C68">
+        <v>2298</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
+      <c r="E68">
+        <v>76</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>153</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:10">
+      <c r="A69" s="3">
+        <v>46026</v>
+      </c>
+      <c r="B69">
+        <v>1915</v>
+      </c>
+      <c r="C69">
+        <v>1362</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>553</v>
+      </c>
+      <c r="E69">
+        <v>45</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>59</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:10">
+      <c r="A70" s="3">
+        <v>46027</v>
+      </c>
+      <c r="B70">
+        <v>3040</v>
+      </c>
+      <c r="C70">
+        <v>2584</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>456</v>
+      </c>
+      <c r="E70">
+        <v>67</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+      <c r="H70">
+        <v>188</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:10">
+      <c r="A71" s="3">
+        <v>46028</v>
+      </c>
+      <c r="B71">
+        <v>2977</v>
+      </c>
+      <c r="C71">
+        <v>2472</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>505</v>
+      </c>
+      <c r="E71">
+        <v>65</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>185</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:10">
+      <c r="A72" s="3">
+        <v>46029</v>
+      </c>
+      <c r="B72">
+        <v>4601</v>
+      </c>
+      <c r="C72">
+        <v>4108</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>493</v>
+      </c>
+      <c r="E72">
+        <v>74</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>6</v>
+      </c>
+      <c r="H72">
+        <v>206</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:10">
+      <c r="A73" s="3">
+        <v>46030</v>
+      </c>
+      <c r="B73">
+        <v>4437</v>
+      </c>
+      <c r="C73">
+        <v>3830</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>607</v>
+      </c>
+      <c r="E73">
+        <v>87</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73">
+        <v>8</v>
+      </c>
+      <c r="H73">
+        <v>224</v>
+      </c>
+      <c r="I73">
+        <v>8</v>
+      </c>
+      <c r="J73">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:10">
+      <c r="A74" s="3">
+        <v>46031</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:10">
+      <c r="A75" s="3">
+        <v>46032</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:10">
+      <c r="A76" s="3">
+        <v>46033</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:10">
+      <c r="A77" s="3">
+        <v>46034</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:10">
+      <c r="A78" s="3">
+        <v>46035</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:10">
+      <c r="A79" s="3">
+        <v>46036</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:10">
+      <c r="A80" s="3">
+        <v>46037</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:4">
+      <c r="A81" s="3">
+        <v>46038</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:4">
+      <c r="A82" s="3">
+        <v>46039</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:4">
+      <c r="A83" s="3">
+        <v>46040</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:4">
+      <c r="A84" s="3">
+        <v>46041</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:4">
+      <c r="A85" s="3">
+        <v>46042</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:4">
+      <c r="A86" s="3">
+        <v>46043</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:4">
+      <c r="A87" s="3">
+        <v>46044</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:4">
+      <c r="A88" s="3">
+        <v>46045</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:4">
+      <c r="A89" s="3">
+        <v>46046</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:4">
+      <c r="A90" s="3">
+        <v>46047</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:4">
+      <c r="A91" s="3">
+        <v>46048</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:4">
+      <c r="A92" s="3">
+        <v>46049</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:4">
+      <c r="A93" s="3">
+        <v>46050</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:4">
+      <c r="A94" s="3">
+        <v>46051</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:4">
+      <c r="A95" s="3">
+        <v>46052</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:4">
+      <c r="A96" s="3">
+        <v>46053</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ref="D96:D127" si="4">B96-C96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:4">
+      <c r="A97" s="3">
+        <v>46054</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:4">
+      <c r="A98" s="3">
+        <v>46055</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:4">
+      <c r="A99" s="3">
+        <v>46056</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:4">
+      <c r="A100" s="3">
+        <v>46057</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:4">
+      <c r="A101" s="3">
+        <v>46058</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:4">
+      <c r="A102" s="3">
+        <v>46059</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:4">
+      <c r="A103" s="3">
+        <v>46060</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:4">
+      <c r="A104" s="3">
+        <v>46061</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:4">
+      <c r="A105" s="3">
+        <v>46062</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:4">
+      <c r="A106" s="3">
+        <v>46063</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:4">
+      <c r="A107" s="3">
+        <v>46064</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:4">
+      <c r="A108" s="3">
+        <v>46065</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:4">
+      <c r="A109" s="3">
+        <v>46066</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:4">
+      <c r="A110" s="3">
+        <v>46067</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:4">
+      <c r="A111" s="3">
+        <v>46068</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:4">
+      <c r="A112" s="3">
+        <v>46069</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:4">
+      <c r="A113" s="3">
+        <v>46070</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:4">
+      <c r="A114" s="3">
+        <v>46071</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:4">
+      <c r="A115" s="3">
+        <v>46072</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:4">
+      <c r="A116" s="3">
+        <v>46073</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:4">
+      <c r="A117" s="3">
+        <v>46074</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:4">
+      <c r="A118" s="3">
+        <v>46075</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:4">
+      <c r="A119" s="3">
+        <v>46076</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:4">
+      <c r="A120" s="3">
+        <v>46077</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:4">
+      <c r="A121" s="3">
+        <v>46078</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:4">
+      <c r="A122" s="3">
+        <v>46079</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:4">
+      <c r="A123" s="3">
+        <v>46080</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:4">
+      <c r="A124" s="3">
+        <v>46081</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:4">
+      <c r="A125" s="3">
+        <v>46082</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:4">
+      <c r="A126" s="3">
+        <v>46083</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:4">
+      <c r="A127" s="3">
+        <v>46084</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:4">
+      <c r="A128" s="3">
+        <v>46085</v>
+      </c>
+      <c r="D128">
+        <f>B128-C128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:4">
+      <c r="A129" s="3">
+        <v>46086</v>
+      </c>
+      <c r="D129">
+        <f>B129-C129</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:4">
+      <c r="A130" s="3">
+        <v>46087</v>
+      </c>
+      <c r="D130">
+        <f>B130-C130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:4">
+      <c r="A131" s="3">
+        <v>46088</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:4">
+      <c r="A132" s="3">
+        <v>46089</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:4">
+      <c r="A133" s="3">
+        <v>46090</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:4">
+      <c r="A134" s="3">
+        <v>46091</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:4">
+      <c r="A135" s="3">
+        <v>46092</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:4">
+      <c r="A136" s="3">
+        <v>46093</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:4">
+      <c r="A137" s="3">
+        <v>46094</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:4">
+      <c r="A138" s="3">
+        <v>46095</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:4">
+      <c r="A139" s="3">
+        <v>46096</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:4">
+      <c r="A140" s="3">
+        <v>46097</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:4">
+      <c r="A141" s="3">
+        <v>46098</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:4">
+      <c r="A142" s="3">
+        <v>46099</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:4">
+      <c r="A143" s="3">
+        <v>46100</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:4">
+      <c r="A144" s="3">
+        <v>46101</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:1">
+      <c r="A145" s="3">
+        <v>46102</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:1">
+      <c r="A146" s="3">
+        <v>46103</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:1">
+      <c r="A147" s="3">
+        <v>46104</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:1">
+      <c r="A148" s="3">
+        <v>46105</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:1">
+      <c r="A149" s="3">
+        <v>46106</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:1">
+      <c r="A150" s="3">
+        <v>46107</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:1">
+      <c r="A151" s="3">
+        <v>46108</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:1">
+      <c r="A152" s="3">
+        <v>46109</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:1">
+      <c r="A153" s="3">
+        <v>46110</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:1">
+      <c r="A154" s="3">
+        <v>46111</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:1">
+      <c r="A155" s="3">
+        <v>46112</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:1">
+      <c r="A156" s="3">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:1">
+      <c r="A157" s="3">
+        <v>46114</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:1">
+      <c r="A158" s="3">
+        <v>46115</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:1">
+      <c r="A159" s="3">
+        <v>46116</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:1">
+      <c r="A160" s="3">
+        <v>46117</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:1">
+      <c r="A161" s="3">
+        <v>46118</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:1">
+      <c r="A162" s="3">
+        <v>46119</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="1:1">
+      <c r="A163" s="3">
+        <v>46120</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:1">
+      <c r="A164" s="3">
+        <v>46121</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="1:1">
+      <c r="A165" s="3">
+        <v>46122</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:1">
+      <c r="A166" s="3">
+        <v>46123</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="1:1">
+      <c r="A167" s="3">
+        <v>46124</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="1:1">
+      <c r="A168" s="3">
+        <v>46125</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="1:1">
+      <c r="A169" s="3">
+        <v>46126</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:1">
+      <c r="A170" s="3">
+        <v>46127</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="1:1">
+      <c r="A171" s="3">
+        <v>46128</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:1">
+      <c r="A172" s="3">
+        <v>46129</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="1:1">
+      <c r="A173" s="3">
+        <v>46130</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="1:1">
+      <c r="A174" s="3">
+        <v>46131</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="1:1">
+      <c r="A175" s="3">
+        <v>46132</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="1:1">
+      <c r="A176" s="3">
+        <v>46133</v>
+      </c>
+    </row>
+    <row r="177" customHeight="1" spans="1:1">
+      <c r="A177" s="3">
+        <v>46134</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="1:1">
+      <c r="A178" s="3">
+        <v>46135</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="1:1">
+      <c r="A179" s="3">
+        <v>46136</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="1:1">
+      <c r="A180" s="3">
+        <v>46137</v>
+      </c>
+    </row>
+    <row r="181" customHeight="1" spans="1:1">
+      <c r="A181" s="3">
+        <v>46138</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="1:1">
+      <c r="A182" s="3">
+        <v>46139</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="1:1">
+      <c r="A183" s="3">
+        <v>46140</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="1:1">
+      <c r="A184" s="3">
+        <v>46141</v>
+      </c>
+    </row>
+    <row r="185" customHeight="1" spans="1:1">
+      <c r="A185" s="3">
+        <v>46142</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="1:1">
+      <c r="A186" s="3">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="1:1">
+      <c r="A187" s="3">
+        <v>46144</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="1:1">
+      <c r="A188" s="3">
+        <v>46145</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="1:1">
+      <c r="A189" s="3">
+        <v>46146</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="1:1">
+      <c r="A190" s="3">
+        <v>46147</v>
+      </c>
+    </row>
+    <row r="191" customHeight="1" spans="1:1">
+      <c r="A191" s="3">
+        <v>46148</v>
+      </c>
+    </row>
+    <row r="192" customHeight="1" spans="1:1">
+      <c r="A192" s="3">
+        <v>46149</v>
+      </c>
+    </row>
+    <row r="193" customHeight="1" spans="1:1">
+      <c r="A193" s="3">
+        <v>46150</v>
+      </c>
+    </row>
+    <row r="194" customHeight="1" spans="1:1">
+      <c r="A194" s="3">
+        <v>46151</v>
+      </c>
+    </row>
+    <row r="195" customHeight="1" spans="1:1">
+      <c r="A195" s="3">
+        <v>46152</v>
+      </c>
+    </row>
+    <row r="196" customHeight="1" spans="1:1">
+      <c r="A196" s="3">
+        <v>46153</v>
+      </c>
+    </row>
+    <row r="197" customHeight="1" spans="1:1">
+      <c r="A197" s="3">
+        <v>46154</v>
+      </c>
+    </row>
+    <row r="198" customHeight="1" spans="1:1">
+      <c r="A198" s="3">
+        <v>46155</v>
+      </c>
+    </row>
+    <row r="199" customHeight="1" spans="1:1">
+      <c r="A199" s="3">
+        <v>46156</v>
+      </c>
+    </row>
+    <row r="200" customHeight="1" spans="1:1">
+      <c r="A200" s="3">
+        <v>46157</v>
+      </c>
+    </row>
+    <row r="201" customHeight="1" spans="1:1">
+      <c r="A201" s="3">
+        <v>46158</v>
+      </c>
+    </row>
+    <row r="202" customHeight="1" spans="1:1">
+      <c r="A202" s="3">
+        <v>46159</v>
+      </c>
+    </row>
+    <row r="203" customHeight="1" spans="1:1">
+      <c r="A203" s="3">
+        <v>46160</v>
+      </c>
+    </row>
+    <row r="204" customHeight="1" spans="1:1">
+      <c r="A204" s="3">
+        <v>46161</v>
+      </c>
+    </row>
+    <row r="205" customHeight="1" spans="1:1">
+      <c r="A205" s="3">
+        <v>46162</v>
+      </c>
+    </row>
+    <row r="206" customHeight="1" spans="1:1">
+      <c r="A206" s="3">
+        <v>46163</v>
+      </c>
+    </row>
+    <row r="207" customHeight="1" spans="1:1">
+      <c r="A207" s="3">
+        <v>46164</v>
+      </c>
+    </row>
+    <row r="208" customHeight="1" spans="1:1">
+      <c r="A208" s="3">
+        <v>46165</v>
+      </c>
+    </row>
+    <row r="209" customHeight="1" spans="1:1">
+      <c r="A209" s="3">
+        <v>46166</v>
+      </c>
+    </row>
+    <row r="210" customHeight="1" spans="1:1">
+      <c r="A210" s="3">
+        <v>46167</v>
+      </c>
+    </row>
+    <row r="211" customHeight="1" spans="1:1">
+      <c r="A211" s="3">
+        <v>46168</v>
+      </c>
+    </row>
+    <row r="212" customHeight="1" spans="1:1">
+      <c r="A212" s="3">
+        <v>46169</v>
+      </c>
+    </row>
+    <row r="213" customHeight="1" spans="1:1">
+      <c r="A213" s="3">
+        <v>46170</v>
+      </c>
+    </row>
+    <row r="214" customHeight="1" spans="1:1">
+      <c r="A214" s="3">
+        <v>46171</v>
+      </c>
+    </row>
+    <row r="215" customHeight="1" spans="1:1">
+      <c r="A215" s="3">
+        <v>46172</v>
+      </c>
+    </row>
+    <row r="216" customHeight="1" spans="1:1">
+      <c r="A216" s="3">
+        <v>46173</v>
+      </c>
+    </row>
+    <row r="217" customHeight="1" spans="1:1">
+      <c r="A217" s="3">
+        <v>46174</v>
+      </c>
+    </row>
+    <row r="218" customHeight="1" spans="1:1">
+      <c r="A218" s="3">
+        <v>46175</v>
+      </c>
+    </row>
+    <row r="219" customHeight="1" spans="1:1">
+      <c r="A219" s="3">
+        <v>46176</v>
+      </c>
+    </row>
+    <row r="220" customHeight="1" spans="1:1">
+      <c r="A220" s="3">
+        <v>46177</v>
+      </c>
+    </row>
+    <row r="221" customHeight="1" spans="1:1">
+      <c r="A221" s="3">
+        <v>46178</v>
+      </c>
+    </row>
+    <row r="222" customHeight="1" spans="1:1">
+      <c r="A222" s="3">
+        <v>46179</v>
+      </c>
+    </row>
+    <row r="223" customHeight="1" spans="1:1">
+      <c r="A223" s="3">
+        <v>46180</v>
+      </c>
+    </row>
+    <row r="224" customHeight="1" spans="1:1">
+      <c r="A224" s="3">
+        <v>46181</v>
+      </c>
+    </row>
+    <row r="225" customHeight="1" spans="1:1">
+      <c r="A225" s="3">
+        <v>46182</v>
+      </c>
+    </row>
+    <row r="226" customHeight="1" spans="1:1">
+      <c r="A226" s="3">
+        <v>46183</v>
+      </c>
+    </row>
+    <row r="227" customHeight="1" spans="1:1">
+      <c r="A227" s="3">
+        <v>46184</v>
+      </c>
+    </row>
+    <row r="228" customHeight="1" spans="1:1">
+      <c r="A228" s="3">
+        <v>46185</v>
+      </c>
+    </row>
+    <row r="229" customHeight="1" spans="1:1">
+      <c r="A229" s="3">
+        <v>46186</v>
+      </c>
+    </row>
+    <row r="230" customHeight="1" spans="1:1">
+      <c r="A230" s="3">
+        <v>46187</v>
+      </c>
+    </row>
+    <row r="231" customHeight="1" spans="1:1">
+      <c r="A231" s="3">
+        <v>46188</v>
+      </c>
+    </row>
+    <row r="232" customHeight="1" spans="1:1">
+      <c r="A232" s="3">
+        <v>46189</v>
+      </c>
+    </row>
+    <row r="233" customHeight="1" spans="1:1">
+      <c r="A233" s="3">
+        <v>46190</v>
+      </c>
+    </row>
+    <row r="234" customHeight="1" spans="1:1">
+      <c r="A234" s="3">
+        <v>46191</v>
+      </c>
+    </row>
+    <row r="235" customHeight="1" spans="1:1">
+      <c r="A235" s="3">
+        <v>46192</v>
+      </c>
+    </row>
+    <row r="236" customHeight="1" spans="1:1">
+      <c r="A236" s="3">
+        <v>46193</v>
+      </c>
+    </row>
+    <row r="237" customHeight="1" spans="1:1">
+      <c r="A237" s="3">
+        <v>46194</v>
+      </c>
+    </row>
+    <row r="238" customHeight="1" spans="1:1">
+      <c r="A238" s="3">
+        <v>46195</v>
+      </c>
+    </row>
+    <row r="239" customHeight="1" spans="1:1">
+      <c r="A239" s="3">
+        <v>46196</v>
+      </c>
+    </row>
+    <row r="240" customHeight="1" spans="1:1">
+      <c r="A240" s="3">
+        <v>46197</v>
+      </c>
+    </row>
+    <row r="241" customHeight="1" spans="1:1">
+      <c r="A241" s="3">
+        <v>46198</v>
+      </c>
+    </row>
+    <row r="242" customHeight="1" spans="1:1">
+      <c r="A242" s="3">
+        <v>46199</v>
+      </c>
+    </row>
+    <row r="243" customHeight="1" spans="1:1">
+      <c r="A243" s="3">
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="244" customHeight="1" spans="1:1">
+      <c r="A244" s="3">
+        <v>46201</v>
+      </c>
+    </row>
+    <row r="245" customHeight="1" spans="1:1">
+      <c r="A245" s="3">
+        <v>46202</v>
+      </c>
+    </row>
+    <row r="246" customHeight="1" spans="1:1">
+      <c r="A246" s="3">
+        <v>46203</v>
+      </c>
+    </row>
+    <row r="247" customHeight="1" spans="1:1">
+      <c r="A247" s="3">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="248" customHeight="1" spans="1:1">
+      <c r="A248" s="3">
+        <v>46205</v>
+      </c>
+    </row>
+    <row r="249" customHeight="1" spans="1:1">
+      <c r="A249" s="3">
+        <v>46206</v>
+      </c>
+    </row>
+    <row r="250" customHeight="1" spans="1:1">
+      <c r="A250" s="3">
+        <v>46207</v>
+      </c>
+    </row>
+    <row r="251" customHeight="1" spans="1:1">
+      <c r="A251" s="3">
+        <v>46208</v>
+      </c>
+    </row>
+    <row r="252" customHeight="1" spans="1:1">
+      <c r="A252" s="3">
+        <v>46209</v>
+      </c>
+    </row>
+    <row r="253" customHeight="1" spans="1:1">
+      <c r="A253" s="3">
+        <v>46210</v>
+      </c>
+    </row>
+    <row r="254" customHeight="1" spans="1:1">
+      <c r="A254" s="3">
+        <v>46211</v>
+      </c>
+    </row>
+    <row r="255" customHeight="1" spans="1:1">
+      <c r="A255" s="3">
+        <v>46212</v>
+      </c>
+    </row>
+    <row r="256" customHeight="1" spans="1:1">
+      <c r="A256" s="3">
+        <v>46213</v>
+      </c>
+    </row>
+    <row r="257" customHeight="1" spans="1:1">
+      <c r="A257" s="3">
+        <v>46214</v>
+      </c>
+    </row>
+    <row r="258" customHeight="1" spans="1:1">
+      <c r="A258" s="3">
+        <v>46215</v>
+      </c>
+    </row>
+    <row r="259" customHeight="1" spans="1:1">
+      <c r="A259" s="3">
+        <v>46216</v>
+      </c>
+    </row>
+    <row r="260" customHeight="1" spans="1:1">
+      <c r="A260" s="3">
+        <v>46217</v>
+      </c>
+    </row>
+    <row r="261" customHeight="1" spans="1:1">
+      <c r="A261" s="3">
+        <v>46218</v>
+      </c>
+    </row>
+    <row r="262" customHeight="1" spans="1:1">
+      <c r="A262" s="3">
+        <v>46219</v>
+      </c>
+    </row>
+    <row r="263" customHeight="1" spans="1:1">
+      <c r="A263" s="3">
+        <v>46220</v>
+      </c>
+    </row>
+    <row r="264" customHeight="1" spans="1:1">
+      <c r="A264" s="3">
+        <v>46221</v>
+      </c>
+    </row>
+    <row r="265" customHeight="1" spans="1:1">
+      <c r="A265" s="3">
+        <v>46222</v>
+      </c>
+    </row>
+    <row r="266" customHeight="1" spans="1:1">
+      <c r="A266" s="3">
+        <v>46223</v>
+      </c>
+    </row>
+    <row r="267" customHeight="1" spans="1:1">
+      <c r="A267" s="3">
+        <v>46224</v>
+      </c>
+    </row>
+    <row r="268" customHeight="1" spans="1:1">
+      <c r="A268" s="3">
+        <v>46225</v>
+      </c>
+    </row>
+    <row r="269" customHeight="1" spans="1:1">
+      <c r="A269" s="3">
+        <v>46226</v>
+      </c>
+    </row>
+    <row r="270" customHeight="1" spans="1:1">
+      <c r="A270" s="3">
+        <v>46227</v>
+      </c>
+    </row>
+    <row r="271" customHeight="1" spans="1:1">
+      <c r="A271" s="3">
+        <v>46228</v>
+      </c>
+    </row>
+    <row r="272" customHeight="1" spans="1:1">
+      <c r="A272" s="3">
+        <v>46229</v>
+      </c>
+    </row>
+    <row r="273" customHeight="1" spans="1:1">
+      <c r="A273" s="3">
+        <v>46230</v>
+      </c>
+    </row>
+    <row r="274" customHeight="1" spans="1:1">
+      <c r="A274" s="3">
+        <v>46231</v>
+      </c>
+    </row>
+    <row r="275" customHeight="1" spans="1:1">
+      <c r="A275" s="3">
+        <v>46232</v>
+      </c>
+    </row>
+    <row r="276" customHeight="1" spans="1:1">
+      <c r="A276" s="3">
+        <v>46233</v>
+      </c>
+    </row>
+    <row r="277" customHeight="1" spans="1:1">
+      <c r="A277" s="3">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="278" customHeight="1" spans="1:1">
+      <c r="A278" s="3">
+        <v>46235</v>
+      </c>
+    </row>
+    <row r="279" customHeight="1" spans="1:1">
+      <c r="A279" s="3">
+        <v>46236</v>
+      </c>
+    </row>
+    <row r="280" customHeight="1" spans="1:1">
+      <c r="A280" s="3">
+        <v>46237</v>
+      </c>
+    </row>
+    <row r="281" customHeight="1" spans="1:1">
+      <c r="A281" s="3">
+        <v>46238</v>
+      </c>
+    </row>
+    <row r="282" customHeight="1" spans="1:1">
+      <c r="A282" s="3">
+        <v>46239</v>
+      </c>
+    </row>
+    <row r="283" customHeight="1" spans="1:1">
+      <c r="A283" s="3">
+        <v>46240</v>
+      </c>
+    </row>
+    <row r="284" customHeight="1" spans="1:1">
+      <c r="A284" s="3">
+        <v>46241</v>
+      </c>
+    </row>
+    <row r="285" customHeight="1" spans="1:1">
+      <c r="A285" s="3">
+        <v>46242</v>
+      </c>
+    </row>
+    <row r="286" customHeight="1" spans="1:1">
+      <c r="A286" s="3">
+        <v>46243</v>
+      </c>
+    </row>
+    <row r="287" customHeight="1" spans="1:1">
+      <c r="A287" s="3">
+        <v>46244</v>
+      </c>
+    </row>
+    <row r="288" customHeight="1" spans="1:1">
+      <c r="A288" s="3">
+        <v>46245</v>
+      </c>
+    </row>
+    <row r="289" customHeight="1" spans="1:1">
+      <c r="A289" s="3">
+        <v>46246</v>
+      </c>
+    </row>
+    <row r="290" customHeight="1" spans="1:1">
+      <c r="A290" s="3">
+        <v>46247</v>
+      </c>
+    </row>
+    <row r="291" customHeight="1" spans="1:1">
+      <c r="A291" s="3">
+        <v>46248</v>
+      </c>
+    </row>
+    <row r="292" customHeight="1" spans="1:1">
+      <c r="A292" s="3">
+        <v>46249</v>
+      </c>
+    </row>
+    <row r="293" customHeight="1" spans="1:1">
+      <c r="A293" s="3">
+        <v>46250</v>
+      </c>
+    </row>
+    <row r="294" customHeight="1" spans="1:1">
+      <c r="A294" s="3">
+        <v>46251</v>
+      </c>
+    </row>
+    <row r="295" customHeight="1" spans="1:1">
+      <c r="A295" s="3">
+        <v>46252</v>
+      </c>
+    </row>
+    <row r="296" customHeight="1" spans="1:1">
+      <c r="A296" s="3">
+        <v>46253</v>
+      </c>
+    </row>
+    <row r="297" customHeight="1" spans="1:1">
+      <c r="A297" s="3">
+        <v>46254</v>
+      </c>
+    </row>
+    <row r="298" customHeight="1" spans="1:1">
+      <c r="A298" s="3">
+        <v>46255</v>
+      </c>
+    </row>
+    <row r="299" customHeight="1" spans="1:1">
+      <c r="A299" s="3">
+        <v>46256</v>
+      </c>
+    </row>
+    <row r="300" customHeight="1" spans="1:1">
+      <c r="A300" s="3">
+        <v>46257</v>
+      </c>
+    </row>
+    <row r="301" customHeight="1" spans="1:1">
+      <c r="A301" s="3">
+        <v>46258</v>
+      </c>
+    </row>
+    <row r="302" customHeight="1" spans="1:1">
+      <c r="A302" s="3">
+        <v>46259</v>
+      </c>
+    </row>
+    <row r="303" customHeight="1" spans="1:1">
+      <c r="A303" s="3">
+        <v>46260</v>
+      </c>
+    </row>
+    <row r="304" customHeight="1" spans="1:1">
+      <c r="A304" s="3">
+        <v>46261</v>
+      </c>
+    </row>
+    <row r="305" customHeight="1" spans="1:1">
+      <c r="A305" s="3">
+        <v>46262</v>
+      </c>
+    </row>
+    <row r="306" customHeight="1" spans="1:1">
+      <c r="A306" s="3">
+        <v>46263</v>
+      </c>
+    </row>
+    <row r="307" customHeight="1" spans="1:1">
+      <c r="A307" s="3">
+        <v>46264</v>
+      </c>
+    </row>
+    <row r="308" customHeight="1" spans="1:1">
+      <c r="A308" s="3">
+        <v>46265</v>
+      </c>
+    </row>
+    <row r="309" customHeight="1" spans="1:1">
+      <c r="A309" s="3">
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="310" customHeight="1" spans="1:1">
+      <c r="A310" s="3">
+        <v>46267</v>
+      </c>
+    </row>
+    <row r="311" customHeight="1" spans="1:1">
+      <c r="A311" s="3">
+        <v>46268</v>
+      </c>
+    </row>
+    <row r="312" customHeight="1" spans="1:1">
+      <c r="A312" s="3">
+        <v>46269</v>
+      </c>
+    </row>
+    <row r="313" customHeight="1" spans="1:1">
+      <c r="A313" s="3">
+        <v>46270</v>
+      </c>
+    </row>
+    <row r="314" customHeight="1" spans="1:1">
+      <c r="A314" s="3">
+        <v>46271</v>
+      </c>
+    </row>
+    <row r="315" customHeight="1" spans="1:1">
+      <c r="A315" s="3">
+        <v>46272</v>
+      </c>
+    </row>
+    <row r="316" customHeight="1" spans="1:1">
+      <c r="A316" s="3">
+        <v>46273</v>
+      </c>
+    </row>
+    <row r="317" customHeight="1" spans="1:1">
+      <c r="A317" s="3">
+        <v>46274</v>
+      </c>
+    </row>
+    <row r="318" customHeight="1" spans="1:1">
+      <c r="A318" s="3">
+        <v>46275</v>
+      </c>
+    </row>
+    <row r="319" customHeight="1" spans="1:1">
+      <c r="A319" s="3">
+        <v>46276</v>
+      </c>
+    </row>
+    <row r="320" customHeight="1" spans="1:1">
+      <c r="A320" s="3">
+        <v>46277</v>
+      </c>
+    </row>
+    <row r="321" customHeight="1" spans="1:1">
+      <c r="A321" s="3">
+        <v>46278</v>
+      </c>
+    </row>
+    <row r="322" customHeight="1" spans="1:1">
+      <c r="A322" s="3">
+        <v>46279</v>
+      </c>
+    </row>
+    <row r="323" customHeight="1" spans="1:1">
+      <c r="A323" s="3">
+        <v>46280</v>
+      </c>
+    </row>
+    <row r="324" customHeight="1" spans="1:1">
+      <c r="A324" s="3">
+        <v>46281</v>
+      </c>
+    </row>
+    <row r="325" customHeight="1" spans="1:1">
+      <c r="A325" s="3">
+        <v>46282</v>
+      </c>
+    </row>
+    <row r="326" customHeight="1" spans="1:1">
+      <c r="A326" s="3">
+        <v>46283</v>
+      </c>
+    </row>
+    <row r="327" customHeight="1" spans="1:1">
+      <c r="A327" s="3">
+        <v>46284</v>
+      </c>
+    </row>
+    <row r="328" customHeight="1" spans="1:1">
+      <c r="A328" s="3">
+        <v>46285</v>
+      </c>
+    </row>
+    <row r="329" customHeight="1" spans="1:1">
+      <c r="A329" s="3">
+        <v>46286</v>
+      </c>
+    </row>
+    <row r="330" customHeight="1" spans="1:1">
+      <c r="A330" s="3">
+        <v>46287</v>
+      </c>
+    </row>
+    <row r="331" customHeight="1" spans="1:1">
+      <c r="A331" s="3">
+        <v>46288</v>
+      </c>
+    </row>
+    <row r="332" customHeight="1" spans="1:1">
+      <c r="A332" s="3">
+        <v>46289</v>
+      </c>
+    </row>
+    <row r="333" customHeight="1" spans="1:1">
+      <c r="A333" s="3">
+        <v>46290</v>
+      </c>
+    </row>
+    <row r="334" customHeight="1" spans="1:1">
+      <c r="A334" s="3">
+        <v>46291</v>
+      </c>
+    </row>
+    <row r="335" customHeight="1" spans="1:1">
+      <c r="A335" s="3">
+        <v>46292</v>
+      </c>
+    </row>
+    <row r="336" customHeight="1" spans="1:1">
+      <c r="A336" s="3">
+        <v>46293</v>
+      </c>
+    </row>
+    <row r="337" customHeight="1" spans="1:1">
+      <c r="A337" s="3">
+        <v>46294</v>
+      </c>
+    </row>
+    <row r="338" customHeight="1" spans="1:1">
+      <c r="A338" s="3">
+        <v>46295</v>
+      </c>
+    </row>
+    <row r="339" customHeight="1" spans="1:1">
+      <c r="A339" s="3">
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="340" customHeight="1" spans="1:1">
+      <c r="A340" s="3">
+        <v>46297</v>
+      </c>
+    </row>
+    <row r="341" customHeight="1" spans="1:1">
+      <c r="A341" s="3">
+        <v>46298</v>
+      </c>
+    </row>
+    <row r="342" customHeight="1" spans="1:1">
+      <c r="A342" s="3">
+        <v>46299</v>
+      </c>
+    </row>
+    <row r="343" customHeight="1" spans="1:1">
+      <c r="A343" s="3">
+        <v>46300</v>
+      </c>
+    </row>
+    <row r="344" customHeight="1" spans="1:1">
+      <c r="A344" s="3">
+        <v>46301</v>
+      </c>
+    </row>
+    <row r="345" customHeight="1" spans="1:1">
+      <c r="A345" s="3">
+        <v>46302</v>
+      </c>
+    </row>
+    <row r="346" customHeight="1" spans="1:1">
+      <c r="A346" s="3">
+        <v>46303</v>
+      </c>
+    </row>
+    <row r="347" customHeight="1" spans="1:1">
+      <c r="A347" s="3">
+        <v>46304</v>
+      </c>
+    </row>
+    <row r="348" customHeight="1" spans="1:1">
+      <c r="A348" s="3">
+        <v>46305</v>
+      </c>
+    </row>
+    <row r="349" customHeight="1" spans="1:1">
+      <c r="A349" s="3">
+        <v>46306</v>
+      </c>
+    </row>
+    <row r="350" customHeight="1" spans="1:1">
+      <c r="A350" s="3">
+        <v>46307</v>
+      </c>
+    </row>
+    <row r="351" customHeight="1" spans="1:1">
+      <c r="A351" s="3">
+        <v>46308</v>
+      </c>
+    </row>
+    <row r="352" customHeight="1" spans="1:1">
+      <c r="A352" s="3">
+        <v>46309</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1223,11 +1223,11 @@
   <dimension ref="A1:J352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H78" sqref="H78"/>
+      <selection pane="bottomRight" activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -3622,75 +3622,267 @@
       <c r="A74" s="3">
         <v>46031</v>
       </c>
+      <c r="B74">
+        <v>3185</v>
+      </c>
+      <c r="C74">
+        <v>2802</v>
+      </c>
       <c r="D74">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>383</v>
+      </c>
+      <c r="E74">
+        <v>83</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>6</v>
+      </c>
+      <c r="H74">
+        <v>219</v>
+      </c>
+      <c r="I74">
+        <v>6</v>
+      </c>
+      <c r="J74">
+        <v>71</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:10">
       <c r="A75" s="3">
         <v>46032</v>
       </c>
+      <c r="B75">
+        <v>2291</v>
+      </c>
+      <c r="C75">
+        <v>1900</v>
+      </c>
       <c r="D75">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>391</v>
+      </c>
+      <c r="E75">
+        <v>45</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>83</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>38</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:10">
       <c r="A76" s="3">
         <v>46033</v>
       </c>
+      <c r="B76">
+        <v>374</v>
+      </c>
+      <c r="C76">
+        <v>81</v>
+      </c>
       <c r="D76">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>293</v>
+      </c>
+      <c r="E76">
+        <v>12</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>51</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>27</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:10">
       <c r="A77" s="3">
         <v>46034</v>
       </c>
+      <c r="B77">
+        <v>3861</v>
+      </c>
+      <c r="C77">
+        <v>3395</v>
+      </c>
       <c r="D77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>466</v>
+      </c>
+      <c r="E77">
+        <v>91</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>4</v>
+      </c>
+      <c r="H77">
+        <v>203</v>
+      </c>
+      <c r="I77">
+        <v>6</v>
+      </c>
+      <c r="J77">
+        <v>653</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:10">
       <c r="A78" s="3">
         <v>46035</v>
       </c>
+      <c r="B78">
+        <v>3761</v>
+      </c>
+      <c r="C78">
+        <v>3262</v>
+      </c>
       <c r="D78">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>499</v>
+      </c>
+      <c r="E78">
+        <v>90</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+      <c r="G78">
+        <v>10</v>
+      </c>
+      <c r="H78">
+        <v>205</v>
+      </c>
+      <c r="I78">
+        <v>19</v>
+      </c>
+      <c r="J78">
+        <v>93</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:10">
       <c r="A79" s="3">
         <v>46036</v>
       </c>
+      <c r="B79">
+        <v>4343</v>
+      </c>
+      <c r="C79">
+        <v>3553</v>
+      </c>
       <c r="D79">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>790</v>
+      </c>
+      <c r="E79">
+        <v>93</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+      <c r="G79">
+        <v>8</v>
+      </c>
+      <c r="H79">
+        <v>224</v>
+      </c>
+      <c r="I79">
+        <v>12</v>
+      </c>
+      <c r="J79">
+        <v>223</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:10">
       <c r="A80" s="3">
         <v>46037</v>
       </c>
+      <c r="B80">
+        <v>5957</v>
+      </c>
+      <c r="C80">
+        <v>5396</v>
+      </c>
       <c r="D80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:4">
+        <v>561</v>
+      </c>
+      <c r="E80">
+        <v>93</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80">
+        <v>7</v>
+      </c>
+      <c r="H80">
+        <v>224</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
+      </c>
+      <c r="J80">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:10">
       <c r="A81" s="3">
         <v>46038</v>
       </c>
+      <c r="B81">
+        <v>3280</v>
+      </c>
+      <c r="C81">
+        <v>2760</v>
+      </c>
       <c r="D81">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:4">
+        <v>520</v>
+      </c>
+      <c r="E81">
+        <v>88</v>
+      </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
+      <c r="G81">
+        <v>7</v>
+      </c>
+      <c r="H81">
+        <v>224</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+      <c r="J81">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:10">
       <c r="A82" s="3">
         <v>46039</v>
       </c>
@@ -3699,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:4">
+    <row r="83" customHeight="1" spans="1:10">
       <c r="A83" s="3">
         <v>46040</v>
       </c>
@@ -3708,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:4">
+    <row r="84" customHeight="1" spans="1:10">
       <c r="A84" s="3">
         <v>46041</v>
       </c>
@@ -3717,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:4">
+    <row r="85" customHeight="1" spans="1:10">
       <c r="A85" s="3">
         <v>46042</v>
       </c>
@@ -3726,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:4">
+    <row r="86" customHeight="1" spans="1:10">
       <c r="A86" s="3">
         <v>46043</v>
       </c>
@@ -3735,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:4">
+    <row r="87" customHeight="1" spans="1:10">
       <c r="A87" s="3">
         <v>46044</v>
       </c>
@@ -3744,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:4">
+    <row r="88" customHeight="1" spans="1:10">
       <c r="A88" s="3">
         <v>46045</v>
       </c>
@@ -3753,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:4">
+    <row r="89" customHeight="1" spans="1:10">
       <c r="A89" s="3">
         <v>46046</v>
       </c>
@@ -3762,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:4">
+    <row r="90" customHeight="1" spans="1:10">
       <c r="A90" s="3">
         <v>46047</v>
       </c>
@@ -3771,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="1:4">
+    <row r="91" customHeight="1" spans="1:10">
       <c r="A91" s="3">
         <v>46048</v>
       </c>
@@ -3780,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="1:4">
+    <row r="92" customHeight="1" spans="1:10">
       <c r="A92" s="3">
         <v>46049</v>
       </c>
@@ -3789,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="1:4">
+    <row r="93" customHeight="1" spans="1:10">
       <c r="A93" s="3">
         <v>46050</v>
       </c>
@@ -3798,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="1:4">
+    <row r="94" customHeight="1" spans="1:10">
       <c r="A94" s="3">
         <v>46051</v>
       </c>
@@ -3807,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:4">
+    <row r="95" customHeight="1" spans="1:10">
       <c r="A95" s="3">
         <v>46052</v>
       </c>
@@ -3816,12 +4008,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:4">
+    <row r="96" customHeight="1" spans="1:10">
       <c r="A96" s="3">
         <v>46053</v>
       </c>
       <c r="D96">
-        <f t="shared" ref="D96:D127" si="4">B96-C96</f>
+        <f t="shared" ref="D96:D130" si="4">B96-C96</f>
         <v>0</v>
       </c>
     </row>
@@ -4109,7 +4301,7 @@
         <v>46085</v>
       </c>
       <c r="D128">
-        <f>B128-C128</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4118,7 +4310,7 @@
         <v>46086</v>
       </c>
       <c r="D129">
-        <f>B129-C129</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4127,7 +4319,7 @@
         <v>46087</v>
       </c>
       <c r="D130">
-        <f>B130-C130</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -677,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,6 +688,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1227,7 +1230,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N81" sqref="N81"/>
+      <selection pane="bottomRight" activeCell="P80" sqref="P80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -3886,63 +3889,231 @@
       <c r="A82" s="3">
         <v>46039</v>
       </c>
+      <c r="B82" s="4">
+        <v>3736</v>
+      </c>
+      <c r="C82" s="4">
+        <v>3127</v>
+      </c>
       <c r="D82">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>609</v>
+      </c>
+      <c r="E82" s="4">
+        <v>100</v>
+      </c>
+      <c r="F82" s="4">
+        <v>8</v>
+      </c>
+      <c r="G82" s="4">
+        <v>8</v>
+      </c>
+      <c r="H82" s="4">
+        <v>224</v>
+      </c>
+      <c r="I82" s="4">
+        <v>9</v>
+      </c>
+      <c r="J82" s="4">
+        <v>1328</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:10">
       <c r="A83" s="3">
         <v>46040</v>
       </c>
+      <c r="B83" s="4">
+        <v>543</v>
+      </c>
+      <c r="C83" s="4">
+        <v>98</v>
+      </c>
       <c r="D83">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>445</v>
+      </c>
+      <c r="E83" s="4">
+        <v>22</v>
+      </c>
+      <c r="F83" s="4">
+        <v>3</v>
+      </c>
+      <c r="G83" s="4">
+        <v>3</v>
+      </c>
+      <c r="H83" s="4">
+        <v>51</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1</v>
+      </c>
+      <c r="J83" s="4">
+        <v>2706</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:10">
       <c r="A84" s="3">
         <v>46041</v>
       </c>
+      <c r="B84" s="4">
+        <v>3532</v>
+      </c>
+      <c r="C84" s="4">
+        <v>2916</v>
+      </c>
       <c r="D84">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>616</v>
+      </c>
+      <c r="E84" s="4">
+        <v>80</v>
+      </c>
+      <c r="F84" s="4">
+        <v>3</v>
+      </c>
+      <c r="G84" s="4">
+        <v>3</v>
+      </c>
+      <c r="H84" s="4">
+        <v>132</v>
+      </c>
+      <c r="I84" s="4">
+        <v>2</v>
+      </c>
+      <c r="J84" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:10">
       <c r="A85" s="3">
         <v>46042</v>
       </c>
+      <c r="B85" s="4">
+        <v>4556</v>
+      </c>
+      <c r="C85" s="4">
+        <v>3813</v>
+      </c>
       <c r="D85">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>743</v>
+      </c>
+      <c r="E85" s="4">
+        <v>79</v>
+      </c>
+      <c r="F85" s="4">
+        <v>4</v>
+      </c>
+      <c r="G85" s="4">
+        <v>4</v>
+      </c>
+      <c r="H85" s="4">
+        <v>236</v>
+      </c>
+      <c r="I85" s="4">
+        <v>10</v>
+      </c>
+      <c r="J85" s="4">
+        <v>292</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:10">
       <c r="A86" s="3">
         <v>46043</v>
       </c>
+      <c r="B86" s="4">
+        <v>4980</v>
+      </c>
+      <c r="C86" s="4">
+        <v>4177</v>
+      </c>
       <c r="D86">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>803</v>
+      </c>
+      <c r="E86" s="4">
+        <v>130</v>
+      </c>
+      <c r="F86" s="4">
+        <v>6</v>
+      </c>
+      <c r="G86" s="4">
+        <v>6</v>
+      </c>
+      <c r="H86" s="4">
+        <v>218</v>
+      </c>
+      <c r="I86" s="4">
+        <v>5</v>
+      </c>
+      <c r="J86" s="4">
+        <v>249</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:10">
       <c r="A87" s="3">
         <v>46044</v>
       </c>
+      <c r="B87" s="4">
+        <v>5005</v>
+      </c>
+      <c r="C87" s="4">
+        <v>4340</v>
+      </c>
       <c r="D87">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>665</v>
+      </c>
+      <c r="E87" s="4">
+        <v>93</v>
+      </c>
+      <c r="F87" s="4">
+        <v>4</v>
+      </c>
+      <c r="G87" s="4">
+        <v>5</v>
+      </c>
+      <c r="H87" s="4">
+        <v>213</v>
+      </c>
+      <c r="I87" s="4">
+        <v>9</v>
+      </c>
+      <c r="J87" s="4">
+        <v>28</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:10">
       <c r="A88" s="3">
         <v>46045</v>
       </c>
+      <c r="B88" s="4">
+        <v>4293</v>
+      </c>
+      <c r="C88" s="4">
+        <v>3655</v>
+      </c>
       <c r="D88">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>638</v>
+      </c>
+      <c r="E88" s="4">
+        <v>92</v>
+      </c>
+      <c r="F88" s="4">
+        <v>6</v>
+      </c>
+      <c r="G88" s="4">
+        <v>8</v>
+      </c>
+      <c r="H88" s="4">
+        <v>226</v>
+      </c>
+      <c r="I88" s="4">
+        <v>10</v>
+      </c>
+      <c r="J88" s="4">
+        <v>254</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:10">

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="13545" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="店铺数据" sheetId="2" r:id="rId1"/>
@@ -1226,11 +1226,11 @@
   <dimension ref="A1:J352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E75" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P80" sqref="P80"/>
+      <selection pane="bottomRight" activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4120,17 +4120,65 @@
       <c r="A89" s="3">
         <v>46046</v>
       </c>
+      <c r="B89">
+        <v>3582</v>
+      </c>
+      <c r="C89">
+        <v>3032</v>
+      </c>
       <c r="D89">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>550</v>
+      </c>
+      <c r="E89">
+        <v>103</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>5</v>
+      </c>
+      <c r="H89">
+        <v>185</v>
+      </c>
+      <c r="I89">
+        <v>7</v>
+      </c>
+      <c r="J89">
+        <v>11</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:10">
       <c r="A90" s="3">
         <v>46047</v>
       </c>
+      <c r="B90">
+        <v>580</v>
+      </c>
+      <c r="C90">
+        <v>104</v>
+      </c>
       <c r="D90">
         <f t="shared" si="3"/>
+        <v>476</v>
+      </c>
+      <c r="E90">
+        <v>13</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>51</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
         <v>0</v>
       </c>
     </row>
@@ -4138,17 +4186,65 @@
       <c r="A91" s="3">
         <v>46048</v>
       </c>
+      <c r="B91">
+        <v>3667</v>
+      </c>
+      <c r="C91">
+        <v>2927</v>
+      </c>
       <c r="D91">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>740</v>
+      </c>
+      <c r="E91">
+        <v>87</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>194</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>352</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:10">
       <c r="A92" s="3">
         <v>46049</v>
       </c>
+      <c r="B92">
+        <v>5224</v>
+      </c>
+      <c r="C92">
+        <v>4458</v>
+      </c>
       <c r="D92">
         <f t="shared" si="3"/>
+        <v>766</v>
+      </c>
+      <c r="E92">
+        <v>128</v>
+      </c>
+      <c r="F92">
+        <v>8</v>
+      </c>
+      <c r="G92">
+        <v>8</v>
+      </c>
+      <c r="H92">
+        <v>220</v>
+      </c>
+      <c r="I92">
+        <v>6</v>
+      </c>
+      <c r="J92">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1226,11 +1226,11 @@
   <dimension ref="A1:J352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F83" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K97" sqref="K97"/>
+      <selection pane="bottomRight" activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4252,17 +4252,65 @@
       <c r="A93" s="3">
         <v>46050</v>
       </c>
+      <c r="B93">
+        <v>6926</v>
+      </c>
+      <c r="C93">
+        <v>5947</v>
+      </c>
       <c r="D93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>979</v>
+      </c>
+      <c r="E93">
+        <v>112</v>
+      </c>
+      <c r="F93">
+        <v>9</v>
+      </c>
+      <c r="G93">
+        <v>9</v>
+      </c>
+      <c r="H93">
+        <v>206</v>
+      </c>
+      <c r="I93">
+        <v>5</v>
+      </c>
+      <c r="J93">
+        <v>26</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:10">
       <c r="A94" s="3">
         <v>46051</v>
       </c>
+      <c r="B94">
+        <v>14369</v>
+      </c>
+      <c r="C94">
+        <v>13613</v>
+      </c>
       <c r="D94">
         <f t="shared" si="3"/>
+        <v>756</v>
+      </c>
+      <c r="E94">
+        <v>128</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>256</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
         <v>0</v>
       </c>
     </row>
@@ -4270,66 +4318,234 @@
       <c r="A95" s="3">
         <v>46052</v>
       </c>
+      <c r="B95">
+        <v>4708</v>
+      </c>
+      <c r="C95">
+        <v>4081</v>
+      </c>
       <c r="D95">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>627</v>
+      </c>
+      <c r="E95">
+        <v>121</v>
+      </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+      <c r="G95">
+        <v>8</v>
+      </c>
+      <c r="H95">
+        <v>214</v>
+      </c>
+      <c r="I95">
+        <v>7</v>
+      </c>
+      <c r="J95">
+        <v>52</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:10">
       <c r="A96" s="3">
         <v>46053</v>
       </c>
+      <c r="B96">
+        <v>4728</v>
+      </c>
+      <c r="C96">
+        <v>4330</v>
+      </c>
       <c r="D96">
         <f t="shared" ref="D96:D130" si="4">B96-C96</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="1:4">
+        <v>398</v>
+      </c>
+      <c r="E96">
+        <v>99</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+      <c r="G96">
+        <v>5</v>
+      </c>
+      <c r="H96">
+        <v>187</v>
+      </c>
+      <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:10">
       <c r="A97" s="3">
         <v>46054</v>
       </c>
+      <c r="B97">
+        <v>414</v>
+      </c>
+      <c r="C97">
+        <v>58</v>
+      </c>
       <c r="D97">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:4">
+        <v>356</v>
+      </c>
+      <c r="E97">
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>34</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:10">
       <c r="A98" s="3">
         <v>46055</v>
       </c>
+      <c r="B98">
+        <v>4187</v>
+      </c>
+      <c r="C98">
+        <v>3863</v>
+      </c>
       <c r="D98">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E98">
+        <v>113</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+      <c r="H98">
+        <v>190</v>
+      </c>
+      <c r="I98">
+        <v>5</v>
+      </c>
+      <c r="J98">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:10">
       <c r="A99" s="3">
         <v>46056</v>
       </c>
+      <c r="B99">
+        <v>5331</v>
+      </c>
+      <c r="C99">
+        <v>4537</v>
+      </c>
       <c r="D99">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="1:4">
+        <v>794</v>
+      </c>
+      <c r="E99">
+        <v>102</v>
+      </c>
+      <c r="F99">
+        <v>7</v>
+      </c>
+      <c r="G99">
+        <v>5</v>
+      </c>
+      <c r="H99">
+        <v>176</v>
+      </c>
+      <c r="I99">
+        <v>8</v>
+      </c>
+      <c r="J99">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:10">
       <c r="A100" s="3">
         <v>46057</v>
       </c>
+      <c r="B100">
+        <v>5962</v>
+      </c>
+      <c r="C100">
+        <v>5622</v>
+      </c>
       <c r="D100">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:4">
+        <v>340</v>
+      </c>
+      <c r="E100">
+        <v>86</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+      <c r="G100">
+        <v>5</v>
+      </c>
+      <c r="H100">
+        <v>195</v>
+      </c>
+      <c r="I100">
+        <v>10</v>
+      </c>
+      <c r="J100">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:10">
       <c r="A101" s="3">
         <v>46058</v>
       </c>
+      <c r="B101">
+        <v>5273</v>
+      </c>
+      <c r="C101">
+        <v>4750</v>
+      </c>
       <c r="D101">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:4">
+        <v>523</v>
+      </c>
+      <c r="E101">
+        <v>92</v>
+      </c>
+      <c r="F101">
+        <v>6</v>
+      </c>
+      <c r="G101">
+        <v>6</v>
+      </c>
+      <c r="H101">
+        <v>187</v>
+      </c>
+      <c r="I101">
+        <v>4</v>
+      </c>
+      <c r="J101">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:10">
       <c r="A102" s="3">
         <v>46059</v>
       </c>
@@ -4338,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="1:4">
+    <row r="103" customHeight="1" spans="1:10">
       <c r="A103" s="3">
         <v>46060</v>
       </c>
@@ -4347,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" customHeight="1" spans="1:4">
+    <row r="104" customHeight="1" spans="1:10">
       <c r="A104" s="3">
         <v>46061</v>
       </c>
@@ -4356,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="1:4">
+    <row r="105" customHeight="1" spans="1:10">
       <c r="A105" s="3">
         <v>46062</v>
       </c>
@@ -4365,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" customHeight="1" spans="1:4">
+    <row r="106" customHeight="1" spans="1:10">
       <c r="A106" s="3">
         <v>46063</v>
       </c>
@@ -4374,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="1:4">
+    <row r="107" customHeight="1" spans="1:10">
       <c r="A107" s="3">
         <v>46064</v>
       </c>
@@ -4383,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:4">
+    <row r="108" customHeight="1" spans="1:10">
       <c r="A108" s="3">
         <v>46065</v>
       </c>
@@ -4392,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="1:4">
+    <row r="109" customHeight="1" spans="1:10">
       <c r="A109" s="3">
         <v>46066</v>
       </c>
@@ -4401,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" customHeight="1" spans="1:4">
+    <row r="110" customHeight="1" spans="1:10">
       <c r="A110" s="3">
         <v>46067</v>
       </c>
@@ -4410,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:4">
+    <row r="111" customHeight="1" spans="1:10">
       <c r="A111" s="3">
         <v>46068</v>
       </c>
@@ -4419,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="1:4">
+    <row r="112" customHeight="1" spans="1:10">
       <c r="A112" s="3">
         <v>46069</v>
       </c>
